--- a/testdata/users.xlsx
+++ b/testdata/users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -59,40 +59,34 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>FName1gg</t>
-  </si>
-  <si>
-    <t>LName1gg</t>
-  </si>
-  <si>
-    <t>User1gg</t>
-  </si>
-  <si>
-    <t>admin@mail.comgg</t>
-  </si>
-  <si>
-    <t>082555gg</t>
-  </si>
-  <si>
-    <t>Pass1gg</t>
-  </si>
-  <si>
-    <t>Pass1hh</t>
-  </si>
-  <si>
-    <t>083444hh</t>
-  </si>
-  <si>
-    <t>cusomter@mail.comhh</t>
-  </si>
-  <si>
-    <t>User2hh</t>
-  </si>
-  <si>
-    <t>LName2hh</t>
-  </si>
-  <si>
-    <t>FName2hh</t>
+    <t>admin@mail.com</t>
+  </si>
+  <si>
+    <t>cusomter@mail.com</t>
+  </si>
+  <si>
+    <t>FName1yy</t>
+  </si>
+  <si>
+    <t>LName1yy</t>
+  </si>
+  <si>
+    <t>User#1yy</t>
+  </si>
+  <si>
+    <t>082555yy</t>
+  </si>
+  <si>
+    <t>Pass1yy</t>
+  </si>
+  <si>
+    <t>083444yy</t>
+  </si>
+  <si>
+    <t>LName2yy</t>
+  </si>
+  <si>
+    <t>FName2yy</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,25 +462,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -494,19 +488,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>

--- a/testdata/users.xlsx
+++ b/testdata/users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>FirstName</t>
   </si>
@@ -65,28 +65,34 @@
     <t>cusomter@mail.com</t>
   </si>
   <si>
-    <t>FName1yy</t>
-  </si>
-  <si>
-    <t>LName1yy</t>
-  </si>
-  <si>
-    <t>User#1yy</t>
-  </si>
-  <si>
-    <t>082555yy</t>
-  </si>
-  <si>
-    <t>Pass1yy</t>
-  </si>
-  <si>
-    <t>083444yy</t>
-  </si>
-  <si>
-    <t>LName2yy</t>
-  </si>
-  <si>
-    <t>FName2yy</t>
+    <t>FName1</t>
+  </si>
+  <si>
+    <t>FName2</t>
+  </si>
+  <si>
+    <t>LName1</t>
+  </si>
+  <si>
+    <t>LName2</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>082555</t>
+  </si>
+  <si>
+    <t>083444</t>
+  </si>
+  <si>
+    <t>Pass1</t>
+  </si>
+  <si>
+    <t>Pass2</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +471,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -477,10 +483,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -488,13 +494,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -503,10 +509,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>

--- a/testdata/users.xlsx
+++ b/testdata/users.xlsx
@@ -24,41 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>FirstName</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Company BBB</t>
-  </si>
-  <si>
-    <t>Company AAA</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>admin@mail.com</t>
   </si>
   <si>
@@ -71,28 +44,10 @@
     <t>FName2</t>
   </si>
   <si>
-    <t>LName1</t>
-  </si>
-  <si>
-    <t>LName2</t>
-  </si>
-  <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>082555</t>
-  </si>
-  <si>
-    <t>083444</t>
-  </si>
-  <si>
-    <t>Pass1</t>
-  </si>
-  <si>
-    <t>Pass2</t>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>You need to upload at least one file.</t>
   </si>
 </sst>
 </file>
@@ -137,10 +92,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,25 +376,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,80 +397,35 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
